--- a/data/structure.xlsx
+++ b/data/structure.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20412"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fw\Desktop\代码\chinese_snn_review\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\70892\Desktop\代码\chinese_snn_review\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C93F038-8950-43A1-80CD-05DF3AC5E0F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D62CF02-3CFE-456D-BDF9-3F464F065337}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="23260" windowHeight="12580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>网络</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -130,6 +130,10 @@
   </si>
   <si>
     <t>仿真步数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L*</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -190,6 +194,1551 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="zh-CN"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>SEW ResNet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>4.04</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.8899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.91</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12.89</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>67.040000000000006</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>67.78</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>68.760000000000005</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.260000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-14F1-41E1-9F08-86D285FFD8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>MS ResNet</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$6:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4.29</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.1100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$6:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>63.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>69.42</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-14F1-41E1-9F08-86D285FFD8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:v>SpikFormer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$9:$D$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.73</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.41</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11.57</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13.89</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>21.47</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$9:$E$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>70.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>72.459999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.38</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>73.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.81</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-14F1-41E1-9F08-86D285FFD8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:v>Spike-Driven Transformer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$14:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>3.9</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.56</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.1299999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.53</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.09</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$14:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>72.28</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.11</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.680000000000007</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>74.66</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>77.069999999999993</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000006-14F1-41E1-9F08-86D285FFD8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:v>SpikingResformer</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$20:$D$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2.46</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.37</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.46</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.76</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14.76</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$20:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>74.34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.95</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>77.239999999999995</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>78.77</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.400000000000006</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000007-14F1-41E1-9F08-86D285FFD8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:v>Spike-Driven Transformer V2</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$25:$D$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>16.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>32.799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>52.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$25:$E$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>71.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>74.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>75.400000000000006</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>79.099999999999994</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>80</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-14F1-41E1-9F08-86D285FFD8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:v>QK Former</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$31:$D$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>15.13</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.99</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8.52</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>38.909999999999997</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.27</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$31:$E$35</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>78.8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.04</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.69</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.22</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>85.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000009-14F1-41E1-9F08-86D285FFD8B6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="761959072"/>
+        <c:axId val="768598016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="761959072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>功耗</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(mJ)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="768598016"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="768598016"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="87"/>
+          <c:min val="60"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="zh-CN" altLang="en-US"/>
+                  <a:t>正确率</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="zh-CN"/>
+                  <a:t>(%)</a:t>
+                </a:r>
+                <a:endParaRPr lang="zh-CN" altLang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="zh-CN"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="761959072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="zh-CN"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="zh-CN"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>309473</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>137257</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>376116</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>11335</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="图表 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{19E325F4-1857-4F6C-AEFD-676F753B21C7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -455,18 +2004,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F34"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="30.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -483,7 +2032,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -503,7 +2052,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B3">
         <v>50</v>
       </c>
@@ -520,7 +2069,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4">
         <v>101</v>
       </c>
@@ -537,7 +2086,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5">
         <v>152</v>
       </c>
@@ -554,7 +2103,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -574,7 +2123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B7">
         <v>34</v>
       </c>
@@ -591,7 +2140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
         <v>18</v>
       </c>
@@ -608,7 +2157,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -628,7 +2177,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>9</v>
       </c>
@@ -645,7 +2194,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
         <v>10</v>
       </c>
@@ -662,7 +2211,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
         <v>11</v>
       </c>
@@ -679,7 +2228,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
         <v>12</v>
       </c>
@@ -696,7 +2245,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>4</v>
       </c>
@@ -716,7 +2265,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
         <v>9</v>
       </c>
@@ -733,7 +2282,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
         <v>10</v>
       </c>
@@ -750,7 +2299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
         <v>10</v>
       </c>
@@ -767,7 +2316,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
         <v>11</v>
       </c>
@@ -784,7 +2333,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
         <v>19</v>
       </c>
@@ -801,7 +2350,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>13</v>
       </c>
@@ -821,7 +2370,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>15</v>
       </c>
@@ -838,7 +2387,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
         <v>16</v>
       </c>
@@ -855,7 +2404,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
         <v>17</v>
       </c>
@@ -872,27 +2421,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>27</v>
+      </c>
+      <c r="C24">
+        <v>60.38</v>
+      </c>
+      <c r="D24">
+        <v>14.76</v>
+      </c>
+      <c r="E24">
+        <v>79.400000000000006</v>
+      </c>
+      <c r="F24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24">
-        <v>15.1</v>
-      </c>
-      <c r="D24">
-        <v>4</v>
-      </c>
-      <c r="E24">
-        <v>71.8</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>15</v>
       </c>
@@ -900,33 +2449,33 @@
         <v>15.1</v>
       </c>
       <c r="D25">
+        <v>4</v>
+      </c>
+      <c r="E25">
+        <v>71.8</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>15.1</v>
+      </c>
+      <c r="D26">
         <v>16.7</v>
       </c>
-      <c r="E25">
+      <c r="E26">
         <v>74.099999999999994</v>
       </c>
-      <c r="F25">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>16</v>
-      </c>
-      <c r="C26">
-        <v>31.3</v>
-      </c>
-      <c r="D26">
-        <v>7.8</v>
-      </c>
-      <c r="E26">
-        <v>75.400000000000006</v>
-      </c>
       <c r="F26">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
         <v>16</v>
       </c>
@@ -934,33 +2483,33 @@
         <v>31.3</v>
       </c>
       <c r="D27">
+        <v>7.8</v>
+      </c>
+      <c r="E27">
+        <v>75.400000000000006</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>16</v>
+      </c>
+      <c r="C28">
+        <v>31.3</v>
+      </c>
+      <c r="D28">
         <v>32.799999999999997</v>
       </c>
-      <c r="E27">
+      <c r="E28">
         <v>77.2</v>
       </c>
-      <c r="F27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C28">
-        <v>55.4</v>
-      </c>
-      <c r="D28">
-        <v>13</v>
-      </c>
-      <c r="E28">
-        <v>79.099999999999994</v>
-      </c>
       <c r="F28">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
         <v>25</v>
       </c>
@@ -968,70 +2517,70 @@
         <v>55.4</v>
       </c>
       <c r="D29">
+        <v>13</v>
+      </c>
+      <c r="E29">
+        <v>79.099999999999994</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>25</v>
+      </c>
+      <c r="C30">
+        <v>55.4</v>
+      </c>
+      <c r="D30">
         <v>52.4</v>
       </c>
-      <c r="E29">
+      <c r="E30">
         <v>80</v>
       </c>
-      <c r="F29">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+      <c r="F30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
         <v>20</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B31" t="s">
         <v>21</v>
       </c>
-      <c r="C30">
+      <c r="C31">
         <v>16.47</v>
       </c>
-      <c r="D30">
+      <c r="D31">
         <v>15.13</v>
       </c>
-      <c r="E30">
+      <c r="E31">
         <v>78.8</v>
       </c>
-      <c r="F30">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
+      <c r="F31">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
         <v>11</v>
       </c>
-      <c r="C31">
+      <c r="C32">
         <v>29.08</v>
       </c>
-      <c r="D31">
+      <c r="D32">
         <v>21.99</v>
       </c>
-      <c r="E31">
+      <c r="E32">
         <v>82.04</v>
       </c>
-      <c r="F31">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32">
-        <v>64.959999999999994</v>
-      </c>
-      <c r="D32">
-        <v>8.52</v>
-      </c>
-      <c r="E32">
-        <v>81.69</v>
-      </c>
       <c r="F32">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
         <v>22</v>
       </c>
@@ -1039,29 +2588,46 @@
         <v>64.959999999999994</v>
       </c>
       <c r="D33">
-        <v>38.909999999999997</v>
+        <v>8.52</v>
       </c>
       <c r="E33">
-        <v>84.22</v>
+        <v>81.69</v>
       </c>
       <c r="F33">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C34">
         <v>64.959999999999994</v>
       </c>
       <c r="D34">
+        <v>38.909999999999997</v>
+      </c>
+      <c r="E34">
+        <v>84.22</v>
+      </c>
+      <c r="F34">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>23</v>
+      </c>
+      <c r="C35">
+        <v>64.959999999999994</v>
+      </c>
+      <c r="D35">
         <v>64.27</v>
       </c>
-      <c r="E34">
+      <c r="E35">
         <v>85.25</v>
       </c>
-      <c r="F34">
+      <c r="F35">
         <v>4</v>
       </c>
     </row>
@@ -1069,5 +2635,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>